--- a/CompetitionTasks/ExcelDataReader/ExcelOperationsDetails.xlsx
+++ b/CompetitionTasks/ExcelDataReader/ExcelOperationsDetails.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anoop\Desktop\CompetitionTasks\CompetitionTasks\CompetitionTasks\ExcelDataReader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1443FD1E-3C17-44C8-9ADC-3E10272EEDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465FA9E1-39E2-44BD-98EE-5F1CEBF91E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="936" windowWidth="9948" windowHeight="8964" activeTab="1" xr2:uid="{1875E527-A9BE-453D-8678-C39EF1B017D7}"/>
+    <workbookView xWindow="10560" yWindow="936" windowWidth="9948" windowHeight="8964" firstSheet="1" activeTab="2" xr2:uid="{1875E527-A9BE-453D-8678-C39EF1B017D7}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginSheet" sheetId="1" r:id="rId1"/>
     <sheet name="ShareSkill" sheetId="2" r:id="rId2"/>
+    <sheet name="ManageListing" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="41">
   <si>
     <t>Password</t>
   </si>
@@ -153,6 +154,12 @@
   </si>
   <si>
     <t>UserName</t>
+  </si>
+  <si>
+    <t>Mechanical</t>
+  </si>
+  <si>
+    <t>Mech</t>
   </si>
 </sst>
 </file>
@@ -569,20 +576,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090CE77F-9F92-48E5-8A8D-2619F3346F99}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.6640625" customWidth="1"/>
     <col min="2" max="2" width="28.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="14.5546875" customWidth="1"/>
     <col min="6" max="6" width="19.21875" customWidth="1"/>
     <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="43.77734375" customWidth="1"/>
+    <col min="15" max="15" width="59.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
@@ -738,4 +745,123 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977FBF6E-292E-4789-8049-C48C9A1E20E1}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="20.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="4">
+        <v>44705</v>
+      </c>
+      <c r="I2" s="4">
+        <v>44712</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="L2" s="5">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CompetitionTasks/ExcelDataReader/ExcelOperationsDetails.xlsx
+++ b/CompetitionTasks/ExcelDataReader/ExcelOperationsDetails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anoop\Desktop\CompetitionTasks\CompetitionTasks\CompetitionTasks\ExcelDataReader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{465FA9E1-39E2-44BD-98EE-5F1CEBF91E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EE53FC-B0E4-4864-80FB-CBAD501D81BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="936" windowWidth="9948" windowHeight="8964" firstSheet="1" activeTab="2" xr2:uid="{1875E527-A9BE-453D-8678-C39EF1B017D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{1875E527-A9BE-453D-8678-C39EF1B017D7}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginSheet" sheetId="1" r:id="rId1"/>
@@ -759,6 +759,11 @@
   <cols>
     <col min="3" max="3" width="20.21875" customWidth="1"/>
     <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
